--- a/2020/May/Other/SIS Incentive of Mugdho Corporation for the month of February'2020.xlsx
+++ b/2020/May/Other/SIS Incentive of Mugdho Corporation for the month of February'2020.xlsx
@@ -387,9 +387,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -405,9 +402,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,33 +442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,7 +999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,292 +1015,292 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="15.7109375" style="22" customWidth="1"/>
-    <col min="10" max="10" width="24" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="15.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="15.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="24" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="19.5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" s="18" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="20">
         <v>456396</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>266890</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>0</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="20">
         <v>0</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="21">
         <v>0</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="20">
         <v>1001882</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>1016250</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="23">
         <v>1.01</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>2484</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="16">
         <v>7635</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="20">
         <v>1220</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="21">
         <v>11339</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="20">
         <v>811866</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>681820</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="23">
         <v>0.84</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>1295</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="16">
         <v>3479</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="20">
         <v>1020</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="21">
         <v>5794</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="20">
         <v>910733</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>1034450</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="23">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <v>3351</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="16">
         <v>7031</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="20">
         <v>1760</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="21">
         <v>12142</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="20">
         <v>1423684</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>1174385</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="23">
         <v>0.82</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <v>5323</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="16">
         <v>6351</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="20">
         <v>830</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="21">
         <v>12504</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="20">
         <v>332452</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>373145</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="16">
         <v>661</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="16">
         <v>1573</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="20">
         <v>290</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="21">
         <v>2524</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
